--- a/ofc/पशु शाखा इस्तिमेट/Kamal/V_kamal.xlsx
+++ b/ofc/पशु शाखा इस्तिमेट/Kamal/V_kamal.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\पशु शाखा इस्तिमेट\Kamal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\पशु शाखा इस्तिमेट\Kamal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="field" sheetId="19" state="hidden" r:id="rId1"/>
     <sheet name="as per mistry (2)" sheetId="21" r:id="rId2"/>
     <sheet name="WCR" sheetId="22" r:id="rId3"/>
     <sheet name="V" sheetId="23" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId5"/>
+    <sheet name="M" sheetId="24" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -43,40 +43,42 @@
     <definedName name="adopted_rate_water">[2]District_Rate!$L$129</definedName>
     <definedName name="concrete_mixer">[2]Equipment_Rate!$J$10</definedName>
     <definedName name="description_1">[3]Abstract!$B$167</definedName>
-    <definedName name="description_103">[7]Abstract!$B$16</definedName>
+    <definedName name="description_103">[4]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
-    <definedName name="description_124">[4]Abstract!$B$18</definedName>
+    <definedName name="description_124">[5]Abstract!$B$18</definedName>
     <definedName name="description_2">[3]Abstract!$B$168</definedName>
-    <definedName name="description_247">[7]Abstract!$B$22</definedName>
-    <definedName name="description_248">[7]Abstract!$B$23</definedName>
-    <definedName name="description_261">[5]Abstract!$B$33</definedName>
-    <definedName name="description_262" localSheetId="2">[7]Abstract!$B$34</definedName>
-    <definedName name="description_262">[6]Abstract!$B$34</definedName>
-    <definedName name="description_3">[7]Abstract!$B$169</definedName>
-    <definedName name="description_310">[9]Abstract!$B$60</definedName>
-    <definedName name="description_312">[10]Abstract!$B$61</definedName>
-    <definedName name="description_5">[7]Abstract!$B$171</definedName>
-    <definedName name="description_6" localSheetId="2">[9]Abstract!$B$172</definedName>
+    <definedName name="description_247">[4]Abstract!$B$22</definedName>
+    <definedName name="description_248">[4]Abstract!$B$23</definedName>
+    <definedName name="description_261">[6]Abstract!$B$33</definedName>
+    <definedName name="description_262" localSheetId="2">[4]Abstract!$B$34</definedName>
+    <definedName name="description_262">[7]Abstract!$B$34</definedName>
+    <definedName name="description_3">[4]Abstract!$B$169</definedName>
+    <definedName name="description_310">[8]Abstract!$B$60</definedName>
+    <definedName name="description_312">[9]Abstract!$B$61</definedName>
+    <definedName name="description_5">[4]Abstract!$B$171</definedName>
+    <definedName name="description_6" localSheetId="2">[8]Abstract!$B$172</definedName>
     <definedName name="description_6">[3]Abstract!$B$172</definedName>
-    <definedName name="description_759">[7]Abstract!$B$278</definedName>
-    <definedName name="description_781">[11]Abstract!$B$299</definedName>
-    <definedName name="description_783">[7]Abstract!$B$301</definedName>
+    <definedName name="description_759">[4]Abstract!$B$278</definedName>
+    <definedName name="description_781">[10]Abstract!$B$299</definedName>
+    <definedName name="description_783">[4]Abstract!$B$301</definedName>
     <definedName name="description_784">[3]Abstract!$B$300</definedName>
     <definedName name="excavator">[2]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[2]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry (2)'!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">field!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">WCR!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">field!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
     <definedName name="skilled">[2]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[2]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[2]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="94">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -413,14 +415,26 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>-inclined member</t>
+  </si>
+  <si>
+    <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>Detail Valuated Sheet</t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -753,20 +767,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,7 +788,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -791,7 +805,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,7 +814,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +826,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +870,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,122 +971,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1012,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1243,65 +1261,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>Providing and laying  granular sub-base   on prepared surface, mixing  at OMC, and compacting  to achieve the desired density, complete as per Drawing and Technical Specifications., By Mechanical means</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1591,183 +1550,6 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1">
         <row r="16">
@@ -1835,38 +1617,184 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Estimate"/>
-      <sheetName val="WCR"/>
-      <sheetName val="Valuation"/>
-      <sheetName val="Measure"/>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Project:- कालिका मन्दिरमा भएको सार्वजनिक भवन मर्मत सम्भार</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="14">
-          <cell r="G14">
-            <v>8.5378124999999994</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1925,6 +1853,65 @@
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Providing and laying  granular sub-base   on prepared surface, mixing  at OMC, and compacting  to achieve the desired density, complete as per Drawing and Technical Specifications., By Mechanical means</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2199,133 +2186,133 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="88" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="84" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="80" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="79" t="s">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -2362,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -2387,7 +2374,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -2621,7 +2608,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A19" s="21"/>
       <c r="B19" s="37"/>
       <c r="C19" s="22"/>
@@ -3175,11 +3162,11 @@
       <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="77">
+      <c r="C45" s="99">
         <f>J43</f>
         <v>63285.573250426802</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="10">
         <v>100</v>
       </c>
@@ -3213,10 +3200,10 @@
       <c r="B46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="102">
         <v>60000</v>
       </c>
-      <c r="D46" s="82"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="10"/>
       <c r="M46" s="29"/>
       <c r="N46" s="30"/>
@@ -3242,10 +3229,10 @@
       <c r="B47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="81">
+      <c r="C47" s="102">
         <v>30000</v>
       </c>
-      <c r="D47" s="82"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="10">
         <f>C47/C45*100</f>
         <v>47.404168847909865</v>
@@ -3274,11 +3261,11 @@
       <c r="B48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="83">
+      <c r="C48" s="104">
         <f>C45-C47</f>
         <v>33285.573250426802</v>
       </c>
-      <c r="D48" s="83"/>
+      <c r="D48" s="104"/>
       <c r="E48" s="10">
         <f>100-E47</f>
         <v>52.595831152090135</v>
@@ -3307,11 +3294,11 @@
       <c r="B49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C49" s="99">
         <f>C46*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="10">
         <v>3</v>
       </c>
@@ -3339,11 +3326,11 @@
       <c r="B50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="99">
         <f>C46*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="10">
         <v>2</v>
       </c>
@@ -3369,13 +3356,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="A7:F7"/>
@@ -3384,6 +3364,13 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3398,137 +3385,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="88" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="84" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="80" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="79" t="s">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -3565,7 +3552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -3590,7 +3577,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -3824,7 +3811,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A19" s="21"/>
       <c r="B19" s="37"/>
       <c r="C19" s="22"/>
@@ -3837,7 +3824,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A20" s="38">
         <v>2</v>
       </c>
@@ -4374,11 +4361,11 @@
       <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="104">
         <f>J43</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D45" s="83"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
@@ -4410,11 +4397,11 @@
       <c r="B46" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46" s="105">
         <f>J43</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="106"/>
       <c r="E46" s="76">
         <v>100</v>
       </c>
@@ -4448,10 +4435,10 @@
       <c r="B47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="81">
+      <c r="C47" s="102">
         <v>60000</v>
       </c>
-      <c r="D47" s="82"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="10"/>
       <c r="M47" s="29"/>
       <c r="N47" s="30"/>
@@ -4477,10 +4464,10 @@
       <c r="B48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="102">
         <v>30000</v>
       </c>
-      <c r="D48" s="82"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="10">
         <f>C48/C46*100</f>
         <v>49.8997232987019</v>
@@ -4509,11 +4496,11 @@
       <c r="B49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="83">
+      <c r="C49" s="104">
         <f>C46-C48</f>
         <v>30120.573856529627</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="10">
         <f>100-E48</f>
         <v>50.1002767012981</v>
@@ -4542,11 +4529,11 @@
       <c r="B50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="99">
         <f>C47*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="10">
         <v>3</v>
       </c>
@@ -4574,11 +4561,11 @@
       <c r="B51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="99">
         <f>C47*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="10">
         <v>2</v>
       </c>
@@ -4604,6 +4591,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A7:F7"/>
@@ -4612,14 +4607,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4634,225 +4621,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5">
-      <c r="A2" s="101" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="102" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="18">
+      <c r="A5" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="103" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104">
+      <c r="B6" s="78"/>
+      <c r="C6" s="118">
         <f>F28</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104">
+      <c r="I6" s="78"/>
+      <c r="J6" s="118">
         <f>I28</f>
-        <v>60120.573856529627</v>
-      </c>
-      <c r="K6" s="105"/>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="I7" s="109" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="I7" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="110" t="str">
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6">
+      <c r="A8" s="112" t="str">
         <f>'as per mistry (2)'!A6:G6</f>
         <v>Project:- इन्द्रायणी एग्रो फर्म प्रा. लि .</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="I8" s="111" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="I8" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="112" t="str">
+      <c r="A9" s="114" t="str">
         <f>'as per mistry (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="I9" s="111" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="I9" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114" t="s">
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="113" t="s">
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="116" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="116" t="s">
+      <c r="G12" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="116" t="s">
+      <c r="H12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="116" t="s">
+      <c r="I12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="115"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A13" s="117">
+      <c r="A13" s="82">
         <f>'as per mistry (2)'!A9</f>
         <v>1</v>
       </c>
@@ -4877,30 +4864,30 @@
         <v>13770.952499902165</v>
       </c>
       <c r="G13" s="10">
-        <f>V!G17</f>
-        <v>76.011218744285287</v>
+        <f>V!G18</f>
+        <v>91.273742883267289</v>
       </c>
       <c r="H13" s="10">
-        <f>V!I17</f>
+        <f>V!I18</f>
         <v>181.17</v>
       </c>
       <c r="I13" s="10">
         <f>G13*H13</f>
-        <v>13770.952499902165</v>
-      </c>
-      <c r="J13" s="118">
+        <v>16536.063998161535</v>
+      </c>
+      <c r="J13" s="83">
         <f>I13-F13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="119"/>
-      <c r="M13" s="120">
+        <v>2765.1114982593699</v>
+      </c>
+      <c r="K13" s="84"/>
+      <c r="M13" s="85">
         <f>1.25*F13</f>
         <v>17213.690624877705</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.75">
-      <c r="A14" s="117"/>
-      <c r="B14" s="121" t="str">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.6">
+      <c r="A14" s="82"/>
+      <c r="B14" s="86" t="str">
         <f>'as per mistry (2)'!B18</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4914,22 +4901,22 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
-        <f>V!J18</f>
-        <v>976.36530874952211</v>
-      </c>
-      <c r="J14" s="118">
+        <f>V!J19</f>
+        <v>1172.4126730653923</v>
+      </c>
+      <c r="J14" s="83">
         <f>I14-F14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="119"/>
-      <c r="M14" s="120">
+        <v>196.04736431587014</v>
+      </c>
+      <c r="K14" s="84"/>
+      <c r="M14" s="85">
         <f t="shared" ref="M14" si="0">1.25*F14</f>
         <v>1220.4566359369026</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4937,16 +4924,16 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
-      <c r="M15" s="120"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A16" s="117">
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="A16" s="82">
         <f>'as per mistry (2)'!A20</f>
         <v>2</v>
       </c>
-      <c r="B16" s="124" t="str">
+      <c r="B16" s="89" t="str">
         <f>'as per mistry (2)'!B20</f>
         <v xml:space="preserve">;L=hL=cfO{= 5fgf 5fpg] sfd </v>
       </c>
@@ -4967,30 +4954,30 @@
         <v>2283.6025601950623</v>
       </c>
       <c r="G16" s="10">
-        <f>V!G22</f>
-        <v>9.1435537945748244</v>
+        <f>V!G23</f>
+        <v>18.114324798761462</v>
       </c>
       <c r="H16" s="10">
-        <f>V!I22</f>
+        <f>V!I23</f>
         <v>249.75</v>
       </c>
       <c r="I16" s="10">
         <f>G16*H16</f>
-        <v>2283.6025601950623</v>
-      </c>
-      <c r="J16" s="118">
+        <v>4524.0526184906748</v>
+      </c>
+      <c r="J16" s="83">
         <f>I16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="119"/>
-      <c r="M16" s="120">
+        <v>2240.4500582956125</v>
+      </c>
+      <c r="K16" s="84"/>
+      <c r="M16" s="85">
         <f t="shared" ref="M16:M26" si="1">1.25*F16</f>
         <v>2854.5032002438279</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4998,16 +4985,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="119"/>
-      <c r="M17" s="120"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A18" s="117">
+      <c r="A18" s="82">
         <f>'as per mistry (2)'!A25</f>
         <v>3</v>
       </c>
-      <c r="B18" s="124" t="str">
+      <c r="B18" s="89" t="str">
         <f>'as per mistry (2)'!B25</f>
         <v xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </v>
       </c>
@@ -5028,30 +5015,30 @@
         <v>1364.6274001828708</v>
       </c>
       <c r="G18" s="10">
-        <f>V!G27</f>
+        <f>V!G28</f>
         <v>2.0572996037793354</v>
       </c>
       <c r="H18" s="10">
-        <f>V!I27</f>
+        <f>V!I28</f>
         <v>663.31</v>
       </c>
       <c r="I18" s="10">
         <f>G18*H18</f>
         <v>1364.6274001828708</v>
       </c>
-      <c r="J18" s="118">
+      <c r="J18" s="83">
         <f>I18-F18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="119"/>
-      <c r="M18" s="120">
+      <c r="K18" s="84"/>
+      <c r="M18" s="85">
         <f t="shared" si="1"/>
         <v>1705.7842502285885</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="123"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -5059,16 +5046,16 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="119"/>
-      <c r="M19" s="120"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A20" s="117">
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="A20" s="82">
         <f>'as per mistry (2)'!A29</f>
         <v>4</v>
       </c>
-      <c r="B20" s="124" t="str">
+      <c r="B20" s="89" t="str">
         <f>'as per mistry (2)'!B29</f>
         <v>husf] vf8ndf 9'+uf eg]{ / n]en ug]{ sfddf</v>
       </c>
@@ -5089,30 +5076,30 @@
         <v>4025.8349999999991</v>
       </c>
       <c r="G20" s="10">
-        <f>V!G31</f>
-        <v>0.89999999999999991</v>
+        <f>V!G32</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H20" s="10">
-        <f>V!I31</f>
+        <f>V!I32</f>
         <v>4473.1499999999996</v>
       </c>
       <c r="I20" s="10">
         <f>G20*H20</f>
-        <v>4025.8349999999991</v>
-      </c>
-      <c r="J20" s="118">
+        <v>2683.8900000000003</v>
+      </c>
+      <c r="J20" s="83">
         <f>I20-F20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="119"/>
-      <c r="M20" s="120">
-        <f t="shared" ref="M20:M22" si="2">1.25*F20</f>
+        <v>-1341.9449999999988</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="M20" s="85">
+        <f t="shared" ref="M20:M21" si="2">1.25*F20</f>
         <v>5032.2937499999989</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="15.75">
-      <c r="A21" s="117"/>
-      <c r="B21" s="121" t="str">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15.6">
+      <c r="A21" s="82"/>
+      <c r="B21" s="86" t="str">
         <f>'as per mistry (2)'!B32</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -5126,22 +5113,22 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10">
-        <f>V!J32</f>
-        <v>361.89855</v>
-      </c>
-      <c r="J21" s="118">
+        <f>V!J33</f>
+        <v>241.26570000000004</v>
+      </c>
+      <c r="J21" s="83">
         <f>I21-F21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="119"/>
-      <c r="M21" s="120">
+        <v>-120.63284999999996</v>
+      </c>
+      <c r="K21" s="84"/>
+      <c r="M21" s="85">
         <f t="shared" si="2"/>
         <v>452.37318749999997</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5149,16 +5136,16 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
-      <c r="M22" s="120"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A23" s="117">
+      <c r="A23" s="82">
         <f>'as per mistry (2)'!A34</f>
         <v>5</v>
       </c>
-      <c r="B23" s="124" t="str">
+      <c r="B23" s="89" t="str">
         <f>'as per mistry (2)'!B34</f>
         <v xml:space="preserve">hu leQf kvf{ndf l;d]G6 s+lqm6 ug]{ sfd -lk=;L=;L= !M@M$_  </v>
       </c>
@@ -5179,30 +5166,30 @@
         <v>34080.637500000004</v>
       </c>
       <c r="G23" s="10">
-        <f>V!G38</f>
+        <f>V!G39</f>
         <v>2.625</v>
       </c>
       <c r="H23" s="10">
-        <f>V!I38</f>
+        <f>V!I39</f>
         <v>12983.1</v>
       </c>
       <c r="I23" s="10">
         <f>G23*H23</f>
         <v>34080.637500000004</v>
       </c>
-      <c r="J23" s="118">
+      <c r="J23" s="83">
         <f>I23-F23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="119"/>
-      <c r="M23" s="120">
-        <f t="shared" ref="M23:M25" si="3">1.25*F23</f>
+      <c r="K23" s="84"/>
+      <c r="M23" s="85">
+        <f t="shared" ref="M23:M24" si="3">1.25*F23</f>
         <v>42600.796875000007</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="15.75">
-      <c r="A24" s="117"/>
-      <c r="B24" s="121" t="str">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="15.6">
+      <c r="A24" s="82"/>
+      <c r="B24" s="86" t="str">
         <f>'as per mistry (2)'!B39</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -5216,22 +5203,22 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10">
-        <f>V!J39</f>
+        <f>V!J40</f>
         <v>2756.6550374999997</v>
       </c>
-      <c r="J24" s="118">
+      <c r="J24" s="83">
         <f>I24-F24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="119"/>
-      <c r="M24" s="120">
+      <c r="K24" s="84"/>
+      <c r="M24" s="85">
         <f t="shared" si="3"/>
         <v>3445.8187968749999</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="123"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -5239,16 +5226,16 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
-      <c r="M25" s="120"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="M25" s="85"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
-      <c r="A26" s="117">
+      <c r="A26" s="82">
         <f>'as per mistry (2)'!A41</f>
         <v>6</v>
       </c>
-      <c r="B26" s="125" t="str">
+      <c r="B26" s="90" t="str">
         <f>'as per mistry (2)'!B41</f>
         <v>Information board</v>
       </c>
@@ -5269,30 +5256,30 @@
         <v>500</v>
       </c>
       <c r="G26" s="10">
-        <f>V!G41</f>
-        <v>1</v>
+        <f>V!G42</f>
+        <v>0</v>
       </c>
       <c r="H26" s="10">
-        <f>V!I41</f>
+        <f>V!I42</f>
         <v>500</v>
       </c>
       <c r="I26" s="10">
         <f>G26*H26</f>
-        <v>500</v>
-      </c>
-      <c r="J26" s="118">
+        <v>0</v>
+      </c>
+      <c r="J26" s="83">
         <f>I26-F26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="119"/>
-      <c r="M26" s="120">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="84"/>
+      <c r="M26" s="85">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -5300,15 +5287,15 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="119"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="126"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
@@ -5319,11 +5306,11 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7">
         <f>SUM(I13:I26)</f>
-        <v>60120.573856529627</v>
-      </c>
-      <c r="J28" s="127">
+        <v>63359.604927400476</v>
+      </c>
+      <c r="J28" s="92">
         <f>I28-F28</f>
-        <v>0</v>
+        <v>3239.0310708708494</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -5342,6 +5329,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -5349,19 +5349,6 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5377,139 +5364,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="84" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999">
+      <c r="A5" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="80" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="79" t="s">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -5546,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5571,7 +5558,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -5634,19 +5621,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="10">
-        <f>0.7-1.5/12/3.281</f>
-        <v>0.66190185918927158</v>
+        <v>0.63</v>
       </c>
       <c r="E12" s="10">
         <v>1.83</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>3.6338412069491013</v>
+        <v>3.4587000000000003</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>3.6338412069491013</v>
+        <v>3.4587000000000003</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -5715,19 +5701,19 @@
         <v>3</v>
       </c>
       <c r="D15" s="10">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
+        <f>(0.5+7.75+7.25+1)/3.281</f>
+        <v>5.0289545870161536</v>
       </c>
       <c r="E15" s="10">
         <v>1.83</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>11.712892410850349</v>
+        <v>27.608960682718685</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>11.712892410850349</v>
+        <v>27.608960682718685</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -5742,19 +5728,19 @@
         <v>2</v>
       </c>
       <c r="D16" s="10">
-        <f>4.5</f>
-        <v>4.5</v>
+        <f>(6.667+1.5)/3.281</f>
+        <v>2.4891801280097527</v>
       </c>
       <c r="E16" s="10">
         <v>1.83</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>16.47</v>
+        <v>9.110399268515696</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>16.47</v>
+        <v>9.110399268515696</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -5763,158 +5749,172 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27">
-        <f>SUM(G10:G16)</f>
-        <v>76.011218744285287</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="26">
-        <v>181.17</v>
-      </c>
-      <c r="J17" s="27">
-        <f>G17*I17</f>
-        <v>13770.952499902165</v>
-      </c>
-      <c r="K17" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="C17" s="40">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
+        <f>(2.667)/3.281</f>
+        <v>0.81286193233770188</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="2">PRODUCT(C17:E17)</f>
+        <v>6.9011978055470884</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" ref="G17" si="3">F17</f>
+        <v>6.9011978055470884</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="21"/>
       <c r="B18" s="39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="27">
+        <f>SUM(G10:G17)</f>
+        <v>91.273742883267289</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="26">
+        <v>181.17</v>
+      </c>
       <c r="J18" s="27">
-        <f>0.13*G17*(1871.42/18.94)</f>
-        <v>976.36530874952211</v>
+        <f>G18*I18</f>
+        <v>16536.063998161535</v>
       </c>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="27">
+        <f>0.13*G18*(1871.42/18.94)</f>
+        <v>1172.4126730653923</v>
+      </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1">
-      <c r="A20" s="38">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="A21" s="38">
         <v>2</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B21" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="11"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <v>4</v>
-      </c>
-      <c r="E21" s="10">
-        <f>7.5/3.281</f>
-        <v>2.2858884486437061</v>
-      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="36">
-        <f>PRODUCT(C21:F21)</f>
-        <v>9.1435537945748244</v>
-      </c>
+      <c r="G21" s="36"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="1">
-        <f>D21*5</f>
-        <v>20</v>
-      </c>
-      <c r="O21" s="1">
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <f>(0.5+7.5+7.5+0.75)/3.281</f>
+        <v>4.9527583053946964</v>
+      </c>
+      <c r="E22" s="10">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="36">
+        <f>PRODUCT(C22:F22)</f>
+        <v>18.114324798761462</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1">
+        <f>D22*5</f>
+        <v>24.763791526973481</v>
+      </c>
+      <c r="O22" s="1">
         <f>4.5</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="27">
-        <f>SUM(G21:G21)</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="26">
-        <f>Sheet1!H10/10</f>
-        <v>249.75</v>
-      </c>
-      <c r="J22" s="27">
-        <f>G22*I22</f>
-        <v>2283.6025601950623</v>
-      </c>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" hidden="1">
+    <row r="23" spans="1:15" s="1" customFormat="1">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="G23" s="27">
+        <f>SUM(G22:G22)</f>
+        <v>18.114324798761462</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="26">
+        <f>Sheet1!H10/10</f>
+        <v>249.75</v>
+      </c>
       <c r="J23" s="27">
-        <f>0*0.13*G22*5298.54/10</f>
-        <v>0</v>
+        <f>G23*I23</f>
+        <v>4524.0526184906748</v>
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1">
+    <row r="24" spans="1:15" s="1" customFormat="1" hidden="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
@@ -5922,16 +5922,15 @@
       <c r="G24" s="27"/>
       <c r="H24" s="25"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="27">
+        <f>0*0.13*G23*5298.54/10</f>
+        <v>0</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="30">
-      <c r="A25" s="21">
-        <v>3</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="1:15" s="1" customFormat="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
@@ -5942,29 +5941,18 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <f>D37</f>
-        <v>4.5</v>
-      </c>
-      <c r="E26" s="24">
-        <f>10/3.281</f>
-        <v>3.047851264858275</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="36">
-        <f t="shared" ref="G26" si="2">PRODUCT(C26:F26)</f>
-        <v>2.0572996037793354</v>
-      </c>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="30">
+      <c r="A26" s="21">
+        <v>3</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
@@ -5973,48 +5961,59 @@
     <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="21"/>
       <c r="B27" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="27">
-        <f>SUM(G26:G26)</f>
+        <v>66</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <f>D38</f>
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="24">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" ref="G27" si="4">PRODUCT(C27:F27)</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="26">
-        <v>663.31</v>
-      </c>
-      <c r="J27" s="27">
-        <f>G27*I27</f>
-        <v>1364.6274001828708</v>
-      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="39"/>
+      <c r="B28" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
+      <c r="G28" s="27">
+        <f>SUM(G27:G27)</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J28" s="27">
+        <f>G28*I28</f>
+        <v>1364.6274001828708</v>
+      </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="30">
-      <c r="A29" s="21">
-        <v>4</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>69</v>
-      </c>
+    <row r="29" spans="1:15" s="1" customFormat="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
@@ -6025,28 +6024,18 @@
       <c r="J29" s="27"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="39" t="str">
-        <f>B26</f>
-        <v>-for passage flooring</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="23">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="30">
+      <c r="A30" s="21">
         <v>4</v>
       </c>
-      <c r="E30" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="F30" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="36">
-        <f t="shared" ref="G30" si="3">PRODUCT(C30:F30)</f>
-        <v>0.89999999999999991</v>
-      </c>
+      <c r="B30" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="25"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27"/>
@@ -6054,62 +6043,61 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="27">
-        <f>SUM(G30:G30)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="26">
-        <v>4473.1499999999996</v>
-      </c>
-      <c r="J31" s="27">
-        <f>G31*I31</f>
-        <v>4025.8349999999991</v>
-      </c>
+      <c r="B31" s="39" t="str">
+        <f>B27</f>
+        <v>-for passage flooring</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>4</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" ref="G31" si="5">PRODUCT(C31:F31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
+      <c r="G32" s="27">
+        <f>SUM(G31:G31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="26">
+        <v>4473.1499999999996</v>
+      </c>
       <c r="J32" s="27">
-        <f>0.13*G31*3093.15</f>
-        <v>361.89855</v>
+        <f>G32*I32</f>
+        <v>2683.8900000000003</v>
       </c>
       <c r="K32" s="24"/>
-      <c r="M32" s="1">
-        <f>4434</f>
-        <v>4434</v>
-      </c>
-      <c r="N32" s="1" t="e">
-        <f>(PRODUCT(#REF!))*0.15+(PRODUCT(#REF!))*0.15+(PRODUCT(C30:E30))*0.15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O32" s="1" t="e">
-        <f>N32*M32</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="33" spans="1:31" s="1" customFormat="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
@@ -6117,16 +6105,27 @@
       <c r="G33" s="27"/>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="27">
+        <f>0.13*G32*3093.15</f>
+        <v>241.26570000000004</v>
+      </c>
       <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1" ht="30">
-      <c r="A34" s="21">
-        <v>5</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="M33" s="1">
+        <f>4434</f>
+        <v>4434</v>
+      </c>
+      <c r="N33" s="1" t="e">
+        <f>(PRODUCT(#REF!))*0.15+(PRODUCT(#REF!))*0.15+(PRODUCT(C31:E31))*0.15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O33" s="1" t="e">
+        <f>N33*M33</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="1" customFormat="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="22"/>
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
@@ -6137,27 +6136,18 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:31" s="1" customFormat="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="23">
-        <v>3</v>
-      </c>
-      <c r="E35" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="F35" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="G35" s="36">
-        <f>PRODUCT(C35:F35)</f>
-        <v>0.375</v>
-      </c>
+    <row r="35" spans="1:31" s="1" customFormat="1" ht="30">
+      <c r="A35" s="21">
+        <v>5</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="27"/>
@@ -6165,22 +6155,24 @@
     </row>
     <row r="36" spans="1:31" s="1" customFormat="1">
       <c r="A36" s="21"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="C36" s="22">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="24">
         <v>2.5</v>
       </c>
       <c r="F36" s="24">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" ref="G36:G37" si="4">PRODUCT(C36:F36)</f>
-        <v>1.125</v>
+        <f>PRODUCT(C36:F36)</f>
+        <v>0.375</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="26"/>
@@ -6197,67 +6189,91 @@
         <v>4.5</v>
       </c>
       <c r="E37" s="24">
-        <f>(2.8+2.2)/2</f>
         <v>2.5</v>
       </c>
       <c r="F37" s="24">
         <v>0.1</v>
       </c>
       <c r="G37" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G37:G38" si="6">PRODUCT(C37:F37)</f>
         <v>1.125</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="26"/>
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
+      <c r="M37" s="1">
+        <f>16/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="N37" s="1">
+        <f>(7.667+9.25)/2</f>
+        <v>8.4585000000000008</v>
+      </c>
     </row>
     <row r="38" spans="1:31" s="1" customFormat="1">
       <c r="A38" s="21"/>
-      <c r="B38" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="27">
-        <f>SUM(G35:G37)</f>
-        <v>2.625</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="26">
-        <v>12983.1</v>
-      </c>
-      <c r="J38" s="27">
-        <f>G38*I38</f>
-        <v>34080.637500000004</v>
-      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="E38" s="24">
+        <f>(2.8+2.2)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="36">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="24"/>
+      <c r="M38" s="1">
+        <f>(15.5/3.281)</f>
+        <v>4.7241694605303257</v>
+      </c>
+      <c r="N38" s="1">
+        <f>8.5/3.281</f>
+        <v>2.5906735751295336</v>
+      </c>
     </row>
     <row r="39" spans="1:31" s="1" customFormat="1">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
+      <c r="G39" s="27">
+        <f>SUM(G36:G38)</f>
+        <v>2.625</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="26">
+        <v>12983.1</v>
+      </c>
       <c r="J39" s="27">
-        <f>0.13*G38*8078.11</f>
-        <v>2756.6550374999997</v>
+        <f>G39*I39</f>
+        <v>34080.637500000004</v>
       </c>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:31" s="1" customFormat="1">
       <c r="A40" s="21"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
       <c r="E40" s="24"/>
@@ -6265,140 +6281,118 @@
       <c r="G40" s="27"/>
       <c r="H40" s="25"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="27"/>
+      <c r="J40" s="27">
+        <f>0.13*G39*8078.11</f>
+        <v>2756.6550374999997</v>
+      </c>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:31" s="1" customFormat="1">
-      <c r="A41" s="21">
-        <v>6</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="22">
-        <v>1</v>
-      </c>
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="36">
-        <f>PRODUCT(C41:F41)</f>
-        <v>1</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="26">
-        <v>500</v>
-      </c>
-      <c r="J41" s="27">
-        <f>G41*I41</f>
-        <v>500</v>
-      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:31" s="1" customFormat="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="21">
+        <v>6</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="27"/>
+      <c r="G42" s="36">
+        <f>PRODUCT(C42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="26">
+        <v>500</v>
+      </c>
+      <c r="J42" s="27">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="9"/>
-      <c r="B43" s="20" t="s">
+    <row r="43" spans="1:31" s="1" customFormat="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="9"/>
+      <c r="B44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7">
-        <f>SUM(J10:J41)</f>
-        <v>60120.573856529627</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="M43" s="29"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="C44" s="8"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7">
+        <f>SUM(J10:J42)</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="K44" s="4"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="31"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-    </row>
-    <row r="45" spans="1:31" s="1" customFormat="1">
-      <c r="B45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="83">
-        <f>J43</f>
-        <v>60120.573856529627</v>
-      </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="M45" s="12"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="M45" s="29"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
+      <c r="P45" s="31"/>
       <c r="R45" s="30"/>
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-    </row>
-    <row r="46" spans="1:31" s="1" customFormat="1" hidden="1">
-      <c r="B46" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="89">
-        <f>J43</f>
-        <v>60120.573856529627</v>
-      </c>
-      <c r="D46" s="90"/>
-      <c r="E46" s="76">
-        <v>100</v>
-      </c>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+    </row>
+    <row r="46" spans="1:31" s="1" customFormat="1">
+      <c r="B46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="104">
+        <f>J44</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="D46" s="104"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
       <c r="H46" s="12"/>
@@ -6425,16 +6419,25 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" spans="1:31" hidden="1">
-      <c r="B47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="81">
-        <v>60000</v>
-      </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="10"/>
-      <c r="M47" s="29"/>
+    <row r="47" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="B47" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="105">
+        <f>J44</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="D47" s="106"/>
+      <c r="E47" s="76">
+        <v>100</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="30"/>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
@@ -6442,38 +6445,35 @@
       <c r="R47" s="30"/>
       <c r="S47" s="30"/>
       <c r="T47" s="30"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
     </row>
     <row r="48" spans="1:31" hidden="1">
       <c r="B48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="81">
-        <v>30000</v>
-      </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="10">
-        <f>C48/C46*100</f>
-        <v>49.8997232987019</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C48" s="102">
+        <v>60000</v>
+      </c>
+      <c r="D48" s="103"/>
+      <c r="E48" s="10"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
       <c r="U48" s="29"/>
       <c r="V48" s="29"/>
       <c r="W48" s="29"/>
@@ -6488,16 +6488,15 @@
     </row>
     <row r="49" spans="2:31" hidden="1">
       <c r="B49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="83">
-        <f>C46-C48</f>
-        <v>30120.573856529627</v>
-      </c>
-      <c r="D49" s="83"/>
+        <v>18</v>
+      </c>
+      <c r="C49" s="102">
+        <v>30000</v>
+      </c>
+      <c r="D49" s="103"/>
       <c r="E49" s="10">
-        <f>100-E48</f>
-        <v>50.1002767012981</v>
+        <f>C49/C47*100</f>
+        <v>47.348780085316172</v>
       </c>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
@@ -6521,15 +6520,16 @@
     </row>
     <row r="50" spans="2:31" hidden="1">
       <c r="B50" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="77">
-        <f>C47*0.03</f>
-        <v>1800</v>
-      </c>
-      <c r="D50" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="C50" s="104">
+        <f>C47-C49</f>
+        <v>33359.604927400476</v>
+      </c>
+      <c r="D50" s="104"/>
       <c r="E50" s="10">
-        <v>3</v>
+        <f>100-E49</f>
+        <v>52.651219914683828</v>
       </c>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
@@ -6553,15 +6553,15 @@
     </row>
     <row r="51" spans="2:31" hidden="1">
       <c r="B51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="77">
-        <f>C47*0.02</f>
-        <v>1200</v>
-      </c>
-      <c r="D51" s="78"/>
+        <v>20</v>
+      </c>
+      <c r="C51" s="99">
+        <f>C48*0.03</f>
+        <v>1800</v>
+      </c>
+      <c r="D51" s="100"/>
       <c r="E51" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
@@ -6583,24 +6583,56 @@
       <c r="AD51" s="29"/>
       <c r="AE51" s="29"/>
     </row>
+    <row r="52" spans="2:31" hidden="1">
+      <c r="B52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="99">
+        <f>C48*0.02</f>
+        <v>1200</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="10">
+        <v>2</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6613,24 +6645,1301 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999">
+      <c r="A5" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="40">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F17" si="0">PRODUCT(C10:E10)</f>
+        <v>13.889699999999999</v>
+      </c>
+      <c r="G10" s="36">
+        <f t="shared" ref="G10:G17" si="1">F10</f>
+        <v>13.889699999999999</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <f>22/12/3.281</f>
+        <v>0.55877273189068366</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0225540993599511</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0225540993599511</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.4587000000000003</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>3.4587000000000003</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>16.73270344407193</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>16.73270344407193</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>12.549527583053948</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>12.549527583053948</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10">
+        <f>(0.5+7.75+7.25+1)/3.281</f>
+        <v>5.0289545870161536</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>27.608960682718685</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>27.608960682718685</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <f>(6.667+1.5)/3.281</f>
+        <v>2.4891801280097527</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>9.110399268515696</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>9.110399268515696</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="40">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
+        <f>(2.667)/3.281</f>
+        <v>0.81286193233770188</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>6.9011978055470884</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>6.9011978055470884</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="27">
+        <f>SUM(G10:G17)</f>
+        <v>91.273742883267289</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J18" s="27">
+        <f>G18*I18</f>
+        <v>16536.063998161535</v>
+      </c>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" hidden="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27">
+        <f>0.13*G18*(1871.42/18.94)</f>
+        <v>1172.4126730653923</v>
+      </c>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="A21" s="38">
+        <v>2</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <f>(0.5+7.5+7.5+0.75)/3.281</f>
+        <v>4.9527583053946964</v>
+      </c>
+      <c r="E22" s="10">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="36">
+        <f>PRODUCT(C22:F22)</f>
+        <v>18.114324798761462</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1">
+        <f>D22*5</f>
+        <v>24.763791526973481</v>
+      </c>
+      <c r="O22" s="1">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="27">
+        <f>SUM(G22:G22)</f>
+        <v>18.114324798761462</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="26">
+        <f>Sheet1!H10/10</f>
+        <v>249.75</v>
+      </c>
+      <c r="J23" s="27">
+        <f>G23*I23</f>
+        <v>4524.0526184906748</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" hidden="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27">
+        <f>0*0.13*G23*5298.54/10</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="30">
+      <c r="A26" s="21">
+        <v>3</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <f>D38</f>
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="24">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" ref="G27" si="2">PRODUCT(C27:F27)</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27">
+        <f>SUM(G27:G27)</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J28" s="27">
+        <f>G28*I28</f>
+        <v>1364.6274001828708</v>
+      </c>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="30">
+      <c r="A30" s="21">
+        <v>4</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39" t="str">
+        <f>B27</f>
+        <v>-for passage flooring</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>4</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" ref="G31" si="3">PRODUCT(C31:F31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="27">
+        <f>SUM(G31:G31)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="26">
+        <v>4473.1499999999996</v>
+      </c>
+      <c r="J32" s="27">
+        <f>G32*I32</f>
+        <v>2683.8900000000003</v>
+      </c>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27">
+        <f>0.13*G32*3093.15</f>
+        <v>241.26570000000004</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="M33" s="1">
+        <f>4434</f>
+        <v>4434</v>
+      </c>
+      <c r="N33" s="1" t="e">
+        <f>(PRODUCT(#REF!))*0.15+(PRODUCT(#REF!))*0.15+(PRODUCT(C31:E31))*0.15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O33" s="1" t="e">
+        <f>N33*M33</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="1" customFormat="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:31" s="1" customFormat="1" ht="30">
+      <c r="A35" s="21">
+        <v>5</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:31" s="1" customFormat="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="22">
+        <v>1</v>
+      </c>
+      <c r="D36" s="23">
+        <v>3</v>
+      </c>
+      <c r="E36" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="36">
+        <f>PRODUCT(C36:F36)</f>
+        <v>0.375</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:31" s="1" customFormat="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="22">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="E37" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="36">
+        <f t="shared" ref="G37:G38" si="4">PRODUCT(C37:F37)</f>
+        <v>1.125</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+      <c r="M37" s="1">
+        <f>16/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="N37" s="1">
+        <f>(7.667+9.25)/2</f>
+        <v>8.4585000000000008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" s="1" customFormat="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="E38" s="24">
+        <f>(2.8+2.2)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="36">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+      <c r="M38" s="1">
+        <f>(15.5/3.281)</f>
+        <v>4.7241694605303257</v>
+      </c>
+      <c r="N38" s="1">
+        <f>8.5/3.281</f>
+        <v>2.5906735751295336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" s="1" customFormat="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27">
+        <f>SUM(G36:G38)</f>
+        <v>2.625</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J39" s="27">
+        <f>G39*I39</f>
+        <v>34080.637500000004</v>
+      </c>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27">
+        <f>0.13*G39*8078.11</f>
+        <v>2756.6550374999997</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:31" s="1" customFormat="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:31" s="1" customFormat="1">
+      <c r="A42" s="21">
+        <v>6</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="36">
+        <f>PRODUCT(C42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="26">
+        <v>500</v>
+      </c>
+      <c r="J42" s="27">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:31" s="1" customFormat="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="9"/>
+      <c r="B44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7">
+        <f>SUM(J10:J42)</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="M44" s="29"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="31"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+    </row>
+    <row r="46" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="B46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="104">
+        <f>J44</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="D46" s="104"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+    </row>
+    <row r="47" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="B47" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="105">
+        <f>J44</f>
+        <v>63359.604927400476</v>
+      </c>
+      <c r="D47" s="106"/>
+      <c r="E47" s="76">
+        <v>100</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+    </row>
+    <row r="48" spans="1:31" hidden="1">
+      <c r="B48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="102">
+        <v>60000</v>
+      </c>
+      <c r="D48" s="103"/>
+      <c r="E48" s="10"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+    </row>
+    <row r="49" spans="2:31" hidden="1">
+      <c r="B49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="102">
+        <v>30000</v>
+      </c>
+      <c r="D49" s="103"/>
+      <c r="E49" s="10">
+        <f>C49/C47*100</f>
+        <v>47.348780085316172</v>
+      </c>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+    </row>
+    <row r="50" spans="2:31" hidden="1">
+      <c r="B50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="104">
+        <f>C47-C49</f>
+        <v>33359.604927400476</v>
+      </c>
+      <c r="D50" s="104"/>
+      <c r="E50" s="10">
+        <f>100-E49</f>
+        <v>52.651219914683828</v>
+      </c>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+    </row>
+    <row r="51" spans="2:31" hidden="1">
+      <c r="B51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="99">
+        <f>C48*0.03</f>
+        <v>1800</v>
+      </c>
+      <c r="D51" s="100"/>
+      <c r="E51" s="10">
+        <v>3</v>
+      </c>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+    </row>
+    <row r="52" spans="2:31" hidden="1">
+      <c r="B52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="99">
+        <f>C48*0.02</f>
+        <v>1200</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="10">
+        <v>2</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6638,29 +7947,29 @@
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="B3" s="45" t="s">
@@ -6686,7 +7995,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="124" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -6708,7 +8017,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="96"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="51" t="s">
         <v>51</v>
       </c>
@@ -6730,8 +8039,8 @@
         <v>2497.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.5">
-      <c r="B6" s="97" t="s">
+    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.2">
+      <c r="B6" s="126" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -6753,8 +8062,8 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.5">
-      <c r="B7" s="98"/>
+    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.2">
+      <c r="B7" s="127"/>
       <c r="C7" s="57" t="s">
         <v>54</v>
       </c>
@@ -6774,7 +8083,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="98"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="57" t="s">
         <v>56</v>
       </c>
@@ -6795,7 +8104,7 @@
       <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="99"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="62" t="s">
         <v>57</v>
       </c>
@@ -6871,7 +8180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="43" customFormat="1">
+    <row r="14" spans="1:8" s="43" customFormat="1" ht="15">
       <c r="A14" s="73" t="s">
         <v>64</v>
       </c>

--- a/ofc/पशु शाखा इस्तिमेट/Kamal/V_kamal.xlsx
+++ b/ofc/पशु शाखा इस्तिमेट/Kamal/V_kamal.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\पशु शाखा इस्तिमेट\Kamal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\पशु शाखा इस्तिमेट\Kamal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="field" sheetId="19" state="hidden" r:id="rId1"/>
@@ -66,9 +66,9 @@
     <definedName name="generator">[2]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry (2)'!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">field!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">WCR!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">WCR!$A$1:$K$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">field!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">M!$1:$8</definedName>
@@ -78,7 +78,7 @@
     <definedName name="skilled_blacksmith">[2]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[2]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,10 +431,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -767,9 +767,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -805,7 +805,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,7 +814,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +826,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,7 +870,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +985,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,11 +1012,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,28 +1046,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,36 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,7 +1118,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2186,133 +2186,133 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999">
-      <c r="A5" s="98" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="93" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="101" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -2349,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="21"/>
       <c r="B19" s="37"/>
       <c r="C19" s="22"/>
@@ -3162,11 +3162,11 @@
       <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="99">
+      <c r="C45" s="94">
         <f>J43</f>
         <v>63285.573250426802</v>
       </c>
-      <c r="D45" s="100"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="10">
         <v>100</v>
       </c>
@@ -3200,10 +3200,10 @@
       <c r="B46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="102">
+      <c r="C46" s="98">
         <v>60000</v>
       </c>
-      <c r="D46" s="103"/>
+      <c r="D46" s="99"/>
       <c r="E46" s="10"/>
       <c r="M46" s="29"/>
       <c r="N46" s="30"/>
@@ -3229,10 +3229,10 @@
       <c r="B47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="98">
         <v>30000</v>
       </c>
-      <c r="D47" s="103"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="10">
         <f>C47/C45*100</f>
         <v>47.404168847909865</v>
@@ -3261,11 +3261,11 @@
       <c r="B48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="100">
         <f>C45-C47</f>
         <v>33285.573250426802</v>
       </c>
-      <c r="D48" s="104"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="10">
         <f>100-E47</f>
         <v>52.595831152090135</v>
@@ -3294,11 +3294,11 @@
       <c r="B49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="99">
+      <c r="C49" s="94">
         <f>C46*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D49" s="100"/>
+      <c r="D49" s="95"/>
       <c r="E49" s="10">
         <v>3</v>
       </c>
@@ -3326,11 +3326,11 @@
       <c r="B50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="99">
+      <c r="C50" s="94">
         <f>C46*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D50" s="100"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="10">
         <v>2</v>
       </c>
@@ -3356,6 +3356,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="A7:F7"/>
@@ -3364,13 +3371,6 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3385,137 +3385,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999">
-      <c r="A5" s="98" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="93" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="101" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -3552,7 +3552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="21"/>
       <c r="B19" s="37"/>
       <c r="C19" s="22"/>
@@ -3824,7 +3824,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="38">
         <v>2</v>
       </c>
@@ -4361,11 +4361,11 @@
       <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="100">
         <f>J43</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D45" s="104"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
@@ -4397,11 +4397,11 @@
       <c r="B46" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="105">
+      <c r="C46" s="106">
         <f>J43</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D46" s="106"/>
+      <c r="D46" s="107"/>
       <c r="E46" s="76">
         <v>100</v>
       </c>
@@ -4435,10 +4435,10 @@
       <c r="B47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="98">
         <v>60000</v>
       </c>
-      <c r="D47" s="103"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="10"/>
       <c r="M47" s="29"/>
       <c r="N47" s="30"/>
@@ -4464,10 +4464,10 @@
       <c r="B48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="98">
         <v>30000</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="10">
         <f>C48/C46*100</f>
         <v>49.8997232987019</v>
@@ -4496,11 +4496,11 @@
       <c r="B49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="100">
         <f>C46-C48</f>
         <v>30120.573856529627</v>
       </c>
-      <c r="D49" s="104"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="10">
         <f>100-E48</f>
         <v>50.1002767012981</v>
@@ -4529,11 +4529,11 @@
       <c r="B50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="99">
+      <c r="C50" s="94">
         <f>C47*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D50" s="100"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="10">
         <v>3</v>
       </c>
@@ -4561,11 +4561,11 @@
       <c r="B51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="99">
+      <c r="C51" s="94">
         <f>C47*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D51" s="100"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="10">
         <v>2</v>
       </c>
@@ -4591,6 +4591,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C45:D45"/>
@@ -4599,14 +4607,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4622,110 +4622,110 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="18">
-      <c r="A5" s="117" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
       <c r="A6" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="118">
+      <c r="C6" s="108">
         <f>F28</f>
         <v>60120.573856529627</v>
       </c>
-      <c r="D6" s="119"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="79"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
@@ -4733,11 +4733,11 @@
         <v>78</v>
       </c>
       <c r="I6" s="78"/>
-      <c r="J6" s="118">
+      <c r="J6" s="108">
         <f>I28</f>
-        <v>63359.604927400476</v>
-      </c>
-      <c r="K6" s="119"/>
+        <v>61945.582665731345</v>
+      </c>
+      <c r="K6" s="109"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="80" t="s">
@@ -4746,77 +4746,77 @@
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="I7" s="111" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="I7" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="112" t="str">
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="115" t="str">
         <f>'as per mistry (2)'!A6:G6</f>
         <v>Project:- इन्द्रायणी एग्रो फर्म प्रा. लि .</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="I8" s="113" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="I8" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="114" t="str">
+      <c r="A9" s="117" t="str">
         <f>'as per mistry (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="I9" s="113" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="I9" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="108" t="s">
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="81" t="s">
         <v>88</v>
       </c>
@@ -4835,8 +4835,8 @@
       <c r="I12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="107"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="118"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A13" s="82">
@@ -4885,7 +4885,7 @@
         <v>17213.690624877705</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="82"/>
       <c r="B14" s="86" t="str">
         <f>'as per mistry (2)'!B18</f>
@@ -4928,7 +4928,7 @@
       <c r="K15" s="84"/>
       <c r="M15" s="85"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="16" spans="1:13" s="1" customFormat="1">
       <c r="A16" s="82">
         <f>'as per mistry (2)'!A20</f>
         <v>2</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G16" s="10">
         <f>V!G23</f>
-        <v>18.114324798761462</v>
+        <v>10.450571999285458</v>
       </c>
       <c r="H16" s="10">
         <f>V!I23</f>
@@ -4963,11 +4963,11 @@
       </c>
       <c r="I16" s="10">
         <f>G16*H16</f>
-        <v>4524.0526184906748</v>
+        <v>2610.0303568215431</v>
       </c>
       <c r="J16" s="83">
         <f>I16-F16</f>
-        <v>2240.4500582956125</v>
+        <v>326.42779662648081</v>
       </c>
       <c r="K16" s="84"/>
       <c r="M16" s="85">
@@ -5050,7 +5050,7 @@
       <c r="K19" s="84"/>
       <c r="M19" s="85"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A20" s="82">
         <f>'as per mistry (2)'!A29</f>
         <v>4</v>
@@ -5097,7 +5097,7 @@
         <v>5032.2937499999989</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A21" s="82"/>
       <c r="B21" s="86" t="str">
         <f>'as per mistry (2)'!B32</f>
@@ -5187,7 +5187,7 @@
         <v>42600.796875000007</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A24" s="82"/>
       <c r="B24" s="86" t="str">
         <f>'as per mistry (2)'!B39</f>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G26" s="10">
         <f>V!G42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="10">
         <f>V!I42</f>
@@ -5265,11 +5265,11 @@
       </c>
       <c r="I26" s="10">
         <f>G26*H26</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J26" s="83">
         <f>I26-F26</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K26" s="84"/>
       <c r="M26" s="85">
@@ -5306,11 +5306,11 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7">
         <f>SUM(I13:I26)</f>
-        <v>63359.604927400476</v>
+        <v>61945.582665731345</v>
       </c>
       <c r="J28" s="92">
         <f>I28-F28</f>
-        <v>3239.0310708708494</v>
+        <v>1825.0088092017177</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -5329,6 +5329,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -5336,19 +5349,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5366,137 +5366,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999">
-      <c r="A5" s="98" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="93" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="101" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -5533,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="21"/>
       <c r="B20" s="37"/>
       <c r="C20" s="22"/>
@@ -5833,7 +5833,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="38">
         <v>2</v>
       </c>
@@ -5858,17 +5858,17 @@
         <v>1</v>
       </c>
       <c r="D22" s="10">
-        <f>(0.5+7.5+7.5+0.75)/3.281</f>
-        <v>4.9527583053946964</v>
+        <f>(7.5+7.5)/3.281</f>
+        <v>4.5717768972874122</v>
       </c>
       <c r="E22" s="10">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="36">
         <f>PRODUCT(C22:F22)</f>
-        <v>18.114324798761462</v>
+        <v>10.450571999285458</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -5877,7 +5877,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="1">
         <f>D22*5</f>
-        <v>24.763791526973481</v>
+        <v>22.858884486437063</v>
       </c>
       <c r="O22" s="1">
         <f>4.5</f>
@@ -5895,7 +5895,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="27">
         <f>SUM(G22:G22)</f>
-        <v>18.114324798761462</v>
+        <v>10.450571999285458</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>31</v>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="J23" s="27">
         <f>G23*I23</f>
-        <v>4524.0526184906748</v>
+        <v>2610.0303568215431</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -6308,14 +6308,14 @@
         <v>32</v>
       </c>
       <c r="C42" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="36">
         <f>PRODUCT(C42:F42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>38</v>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="J42" s="27">
         <f>G42*I42</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K42" s="24"/>
     </row>
@@ -6356,7 +6356,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7">
         <f>SUM(J10:J42)</f>
-        <v>63359.604927400476</v>
+        <v>61945.582665731345</v>
       </c>
       <c r="K44" s="4"/>
       <c r="M44" s="29"/>
@@ -6387,11 +6387,11 @@
       <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="100">
         <f>J44</f>
-        <v>63359.604927400476</v>
-      </c>
-      <c r="D46" s="104"/>
+        <v>61945.582665731345</v>
+      </c>
+      <c r="D46" s="100"/>
       <c r="E46" s="13"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
@@ -6423,11 +6423,11 @@
       <c r="B47" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="105">
+      <c r="C47" s="106">
         <f>J44</f>
-        <v>63359.604927400476</v>
-      </c>
-      <c r="D47" s="106"/>
+        <v>61945.582665731345</v>
+      </c>
+      <c r="D47" s="107"/>
       <c r="E47" s="76">
         <v>100</v>
       </c>
@@ -6461,10 +6461,10 @@
       <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="98">
         <v>60000</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="10"/>
       <c r="M48" s="29"/>
       <c r="N48" s="30"/>
@@ -6490,13 +6490,13 @@
       <c r="B49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="102">
+      <c r="C49" s="98">
         <v>30000</v>
       </c>
-      <c r="D49" s="103"/>
+      <c r="D49" s="99"/>
       <c r="E49" s="10">
         <f>C49/C47*100</f>
-        <v>47.348780085316172</v>
+        <v>48.429603385740968</v>
       </c>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
@@ -6522,14 +6522,14 @@
       <c r="B50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="100">
         <f>C47-C49</f>
-        <v>33359.604927400476</v>
-      </c>
-      <c r="D50" s="104"/>
+        <v>31945.582665731345</v>
+      </c>
+      <c r="D50" s="100"/>
       <c r="E50" s="10">
         <f>100-E49</f>
-        <v>52.651219914683828</v>
+        <v>51.570396614259032</v>
       </c>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
@@ -6555,11 +6555,11 @@
       <c r="B51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="99">
+      <c r="C51" s="94">
         <f>C48*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D51" s="100"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="10">
         <v>3</v>
       </c>
@@ -6587,11 +6587,11 @@
       <c r="B52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="94">
         <f>C48*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D52" s="100"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="10">
         <v>2</v>
       </c>
@@ -6617,13 +6617,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
@@ -6633,6 +6626,13 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6647,132 +6647,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="7" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999">
-      <c r="A5" s="98" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="93" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
       <c r="K6" s="77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="77" t="s">
         <v>72</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>70</v>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="21"/>
       <c r="B20" s="37"/>
       <c r="C20" s="22"/>
@@ -7112,7 +7112,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="38">
         <v>2</v>
       </c>
@@ -7137,17 +7137,17 @@
         <v>1</v>
       </c>
       <c r="D22" s="10">
-        <f>(0.5+7.5+7.5+0.75)/3.281</f>
-        <v>4.9527583053946964</v>
+        <f>(7.5+7.5)/3.281</f>
+        <v>4.5717768972874122</v>
       </c>
       <c r="E22" s="10">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="36">
         <f>PRODUCT(C22:F22)</f>
-        <v>18.114324798761462</v>
+        <v>10.450571999285458</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -7156,7 +7156,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="1">
         <f>D22*5</f>
-        <v>24.763791526973481</v>
+        <v>22.858884486437063</v>
       </c>
       <c r="O22" s="1">
         <f>4.5</f>
@@ -7174,7 +7174,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="27">
         <f>SUM(G22:G22)</f>
-        <v>18.114324798761462</v>
+        <v>10.450571999285458</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>31</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="J23" s="27">
         <f>G23*I23</f>
-        <v>4524.0526184906748</v>
+        <v>2610.0303568215431</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -7587,14 +7587,14 @@
         <v>32</v>
       </c>
       <c r="C42" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="36">
         <f>PRODUCT(C42:F42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>38</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="J42" s="27">
         <f>G42*I42</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K42" s="24"/>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7">
         <f>SUM(J10:J42)</f>
-        <v>63359.604927400476</v>
+        <v>61945.582665731345</v>
       </c>
       <c r="K44" s="4"/>
       <c r="M44" s="29"/>
@@ -7666,11 +7666,11 @@
       <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="100">
         <f>J44</f>
-        <v>63359.604927400476</v>
-      </c>
-      <c r="D46" s="104"/>
+        <v>61945.582665731345</v>
+      </c>
+      <c r="D46" s="100"/>
       <c r="E46" s="13"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
@@ -7702,11 +7702,11 @@
       <c r="B47" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="105">
+      <c r="C47" s="106">
         <f>J44</f>
-        <v>63359.604927400476</v>
-      </c>
-      <c r="D47" s="106"/>
+        <v>61945.582665731345</v>
+      </c>
+      <c r="D47" s="107"/>
       <c r="E47" s="76">
         <v>100</v>
       </c>
@@ -7740,10 +7740,10 @@
       <c r="B48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="98">
         <v>60000</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="10"/>
       <c r="M48" s="29"/>
       <c r="N48" s="30"/>
@@ -7769,13 +7769,13 @@
       <c r="B49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="102">
+      <c r="C49" s="98">
         <v>30000</v>
       </c>
-      <c r="D49" s="103"/>
+      <c r="D49" s="99"/>
       <c r="E49" s="10">
         <f>C49/C47*100</f>
-        <v>47.348780085316172</v>
+        <v>48.429603385740968</v>
       </c>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
@@ -7801,14 +7801,14 @@
       <c r="B50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="100">
         <f>C47-C49</f>
-        <v>33359.604927400476</v>
-      </c>
-      <c r="D50" s="104"/>
+        <v>31945.582665731345</v>
+      </c>
+      <c r="D50" s="100"/>
       <c r="E50" s="10">
         <f>100-E49</f>
-        <v>52.651219914683828</v>
+        <v>51.570396614259032</v>
       </c>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
@@ -7834,11 +7834,11 @@
       <c r="B51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="99">
+      <c r="C51" s="94">
         <f>C48*0.03</f>
         <v>1800</v>
       </c>
-      <c r="D51" s="100"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="10">
         <v>3</v>
       </c>
@@ -7866,11 +7866,11 @@
       <c r="B52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="94">
         <f>C48*0.02</f>
         <v>1200</v>
       </c>
-      <c r="D52" s="100"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="10">
         <v>2</v>
       </c>
@@ -7896,6 +7896,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
@@ -7904,16 +7910,10 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
   </headerFooter>
@@ -7928,18 +7928,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7947,29 +7947,29 @@
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="B3" s="45" t="s">
@@ -7995,7 +7995,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="125" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -8017,7 +8017,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="125"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="51" t="s">
         <v>51</v>
       </c>
@@ -8039,8 +8039,8 @@
         <v>2497.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.2">
-      <c r="B6" s="126" t="s">
+    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.5">
+      <c r="B6" s="127" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -8062,8 +8062,8 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.2">
-      <c r="B7" s="127"/>
+    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.5">
+      <c r="B7" s="128"/>
       <c r="C7" s="57" t="s">
         <v>54</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="57" t="s">
         <v>56</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="62" t="s">
         <v>57</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="43" customFormat="1" ht="15">
+    <row r="14" spans="1:8" s="43" customFormat="1">
       <c r="A14" s="73" t="s">
         <v>64</v>
       </c>
